--- a/biology/Zoologie/Charollaise_(poule)/Charollaise_(poule).xlsx
+++ b/biology/Zoologie/Charollaise_(poule)/Charollaise_(poule).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La charollaise est une race de poule française qui tire son nom de la région du Charolles, le Charolais, officialisée en 1966.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Origine
-Elle est caractérisée par un fort poitrail, une ligne du dos horizontale et longue, des cuisses saillantes sans bouffant, une queue moyenne et une crête frisée.
-Standard
-Crête : frisée
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est caractérisée par un fort poitrail, une ligne du dos horizontale et longue, des cuisses saillantes sans bouffant, une queue moyenne et une crête frisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charollaise_(poule)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charollaise_(poule)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Crête : frisée
 Oreillons : rouges
 Couleur des yeux : rouge orangé
 Couleur de la peau : blanche
@@ -534,31 +586,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Charollaise_(poule)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charollaise_(poule)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Club officiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupement des éleveurs de la poule Charollaise, le Charollais-Club Français (CCF), fondé en 1997, est chargé de la sauvegarde, de l'amélioration et de la sélection de la poule charollaise, volaille faisant partie du patrimoine du Charolais. Son siège est à la mairie de Charolles.
 </t>
